--- a/Logistics tracking .xlsx
+++ b/Logistics tracking .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoboCop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C311B64-A84C-4AC5-A0C9-117E91BAD8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C015B024-2D0B-43DA-8774-495E9867F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95896C66-2343-4582-9222-06E51EC7ADD5}"/>
   </bookViews>
@@ -747,10 +747,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1523,6 +1519,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="hSK6HM9N2xcAW0zDbIG/ZPlApRq33/HBzpuYEPibPCKVUzk0fO/7jtll3jctYe5HlOJN4m0+2NwlNNYWjUf2zg==" saltValue="S7WNpFjJdqYTDSU/Z9NbtA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
